--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
@@ -1258,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1281,7 +1281,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1327,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1373,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1396,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1442,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1465,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1511,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,120 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>BONOLA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>GROTH</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ALCARAZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>AGUSTIN</t>
-  </si>
-  <si>
-    <t>IAN ISSAID</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE</t>
-  </si>
-  <si>
-    <t>RENZO JHOVANI</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>ASTRID</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>NADYA GUADALUPE</t>
-  </si>
-  <si>
-    <t>GUADALUPE ABRIL</t>
   </si>
 </sst>
 </file>
@@ -626,19 +512,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,19 +564,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>83.33</v>
+        <v>86.11</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,19 +590,19 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>13.79</v>
+        <v>37.93</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,19 +616,19 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>63.64</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,10 +642,10 @@
         <v>39</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>17</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>22</v>
@@ -768,7 +654,7 @@
         <v>56.41</v>
       </c>
       <c r="H8">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -824,16 +710,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>75.68000000000001</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -847,16 +736,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>67.86</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -870,16 +762,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -893,16 +788,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -916,16 +814,19 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>17.24</v>
+      </c>
+      <c r="H6">
+        <v>6.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -939,16 +840,19 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H7">
+        <v>6.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -962,16 +866,19 @@
         <v>39</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>58.97</v>
+      </c>
+      <c r="H8">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -1030,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>83.78</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1053,19 +960,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>67.86</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1082,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1105,10 +1012,10 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -1117,7 +1024,7 @@
         <v>83.33</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1131,19 +1038,19 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>13.79</v>
+        <v>34.48</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1157,10 +1064,10 @@
         <v>33</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -1169,7 +1076,7 @@
         <v>63.64</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1183,19 +1090,19 @@
         <v>39</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H8">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1238,328 +1145,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920060</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920059</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920292</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920232</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920429</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920235</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920404</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920375</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920436</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920194</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920242</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920239</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920193</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1145,6 +1154,29 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -85,10 +85,28 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ALMA LIZETH</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
   </si>
   <si>
     <t>JENNIFER</t>
@@ -1121,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1156,24 +1174,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920369</v>
+        <v>19330051920046</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920057</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920369</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>Mat</t>
   </si>
@@ -91,6 +91,9 @@
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>MORO</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
@@ -107,6 +113,9 @@
   </si>
   <si>
     <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
   </si>
   <si>
     <t>JENNIFER</t>
@@ -1139,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,10 +1189,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1203,10 +1212,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1220,24 +1229,47 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920369</v>
+        <v>19330051920201</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
